--- a/experimentation/Final Report/AStar Experimental Data/astar_summary_250.xlsx
+++ b/experimentation/Final Report/AStar Experimental Data/astar_summary_250.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VHS_PROCESSING\PycharmProjects\group_project\aima-python\simulation_prototype\AStar Experimental Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\denni\PycharmProjects\Summer 2023 CS 534\group-project\aima-python\experimentation\Final Report\AStar Experimental Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B0C5C48C-1C8B-4906-8BFD-6607289DC3C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCA39349-7A50-4A1C-BEB7-3CF42E495EE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{0DEF6570-5365-438A-901B-A181952F793B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{0DEF6570-5365-438A-901B-A181952F793B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -50,10 +50,10 @@
     <t>Time Cost (ms)</t>
   </si>
   <si>
-    <t>Test Aggregate Results (Grid Size 250)</t>
+    <t>Diagonal Movement</t>
   </si>
   <si>
-    <t>Diagonal Movement</t>
+    <t>Astar Test Results (Grid Size 250)</t>
   </si>
 </sst>
 </file>
@@ -309,21 +309,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -341,6 +326,21 @@
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -659,7 +659,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -671,20 +671,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="12"/>
+      <c r="A1" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="20"/>
     </row>
     <row r="2" spans="1:5" ht="27" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>2</v>
@@ -697,273 +697,273 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="13">
+      <c r="A3" s="16">
         <v>1</v>
       </c>
       <c r="B3" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="C3" s="17">
+      <c r="C3" s="12">
         <v>200</v>
       </c>
       <c r="D3" s="5">
         <v>106</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="10">
         <v>2.0029544830322199</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="14"/>
+      <c r="A4" s="17"/>
       <c r="B4" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4" s="11">
         <v>198.82842712474601</v>
       </c>
       <c r="D4" s="7">
         <v>106</v>
       </c>
-      <c r="E4" s="18">
+      <c r="E4" s="13">
         <v>2.0160675048828098</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="13">
+      <c r="A5" s="16">
         <v>2</v>
       </c>
       <c r="B5" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="12">
         <v>444</v>
       </c>
       <c r="D5" s="5">
         <v>18640</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="10">
         <v>152.95672416687</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="14"/>
+      <c r="A6" s="17"/>
       <c r="B6" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="11">
         <v>351.445742854949</v>
       </c>
       <c r="D6" s="7">
         <v>6379</v>
       </c>
-      <c r="E6" s="18">
+      <c r="E6" s="13">
         <v>86.349964141845703</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="13">
+      <c r="A7" s="16">
         <v>3</v>
       </c>
       <c r="B7" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="C7" s="17">
+      <c r="C7" s="12">
         <v>1018</v>
       </c>
       <c r="D7" s="5">
         <v>36183</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="10">
         <v>323.54164123535099</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="14"/>
+      <c r="A8" s="17"/>
       <c r="B8" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="11">
         <v>969.86204845837699</v>
       </c>
       <c r="D8" s="7">
         <v>33385</v>
       </c>
-      <c r="E8" s="18">
+      <c r="E8" s="13">
         <v>465.67463874816798</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="13">
+      <c r="A9" s="16">
         <v>4</v>
       </c>
       <c r="B9" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="C9" s="17">
+      <c r="C9" s="12">
         <v>460</v>
       </c>
       <c r="D9" s="5">
         <v>9586</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="10">
         <v>78.557014465332003</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="14"/>
+      <c r="A10" s="17"/>
       <c r="B10" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C10" s="11">
         <v>381.50461735799502</v>
       </c>
       <c r="D10" s="7">
         <v>4032</v>
       </c>
-      <c r="E10" s="18">
+      <c r="E10" s="13">
         <v>53.614139556884702</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="13">
+      <c r="A11" s="16">
         <v>5</v>
       </c>
       <c r="B11" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="C11" s="17">
+      <c r="C11" s="12">
         <v>1230</v>
       </c>
       <c r="D11" s="5">
         <v>37235</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="10">
         <v>328.19724082946698</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="14"/>
+      <c r="A12" s="17"/>
       <c r="B12" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="C12" s="16">
+      <c r="C12" s="11">
         <v>1010.31284194721</v>
       </c>
       <c r="D12" s="7">
         <v>29286</v>
       </c>
-      <c r="E12" s="18">
+      <c r="E12" s="13">
         <v>398.190259933471</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="13">
+      <c r="A13" s="16">
         <v>6</v>
       </c>
       <c r="B13" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="C13" s="17">
+      <c r="C13" s="12">
         <v>622</v>
       </c>
       <c r="D13" s="5">
         <v>21656</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E13" s="10">
         <v>180.319786071777</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="14"/>
+      <c r="A14" s="17"/>
       <c r="B14" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="C14" s="16">
+      <c r="C14" s="11">
         <v>522.41630560342605</v>
       </c>
       <c r="D14" s="7">
         <v>8293</v>
       </c>
-      <c r="E14" s="18">
+      <c r="E14" s="13">
         <v>123.100280761718</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="13">
+      <c r="A15" s="16">
         <v>7</v>
       </c>
       <c r="B15" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="C15" s="17">
+      <c r="C15" s="12">
         <v>1724</v>
       </c>
       <c r="D15" s="5">
         <v>14474</v>
       </c>
-      <c r="E15" s="15">
+      <c r="E15" s="10">
         <v>115.57912826538001</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="14"/>
+      <c r="A16" s="17"/>
       <c r="B16" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="C16" s="16">
+      <c r="C16" s="11">
         <v>1605.73419818452</v>
       </c>
       <c r="D16" s="7">
         <v>13668</v>
       </c>
-      <c r="E16" s="18">
+      <c r="E16" s="13">
         <v>187.65330314636199</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="13">
+      <c r="A17" s="16">
         <v>8</v>
       </c>
       <c r="B17" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="C17" s="17">
+      <c r="C17" s="12">
         <v>1460</v>
       </c>
       <c r="D17" s="5">
         <v>23832</v>
       </c>
-      <c r="E17" s="15">
+      <c r="E17" s="10">
         <v>194.548606872558</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="14"/>
+      <c r="A18" s="17"/>
       <c r="B18" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="C18" s="20">
+      <c r="C18" s="15">
         <v>1273.9696961966999</v>
       </c>
       <c r="D18" s="9">
         <v>22513</v>
       </c>
-      <c r="E18" s="19">
+      <c r="E18" s="14">
         <v>305.362701416015</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A1:E1"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A1:E1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
